--- a/文档/测试工作相关/End-to-end integration test/测试内容相关/2020/20200604/需要综资支持VIMS割接(206394063)/需要综资支持VIMS割接(206394063)测试结果.xlsx
+++ b/文档/测试工作相关/End-to-end integration test/测试内容相关/2020/20200604/需要综资支持VIMS割接(206394063)/需要综资支持VIMS割接(206394063)测试结果.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
-  <si>
-    <t>序号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>测试状态</t>
   </si>
@@ -179,23 +176,27 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>测试不通过</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>综资回复该场景测试发现的问题，开发尚未解决</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>直线+宽带同割</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>测试不通过</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>综资回复该场景测试发现的问题，开发尚未解决</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
+    <t>(2020)/404841397</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -424,17 +425,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,61 +743,61 @@
   <sheetData>
     <row r="1" spans="1:253">
       <c r="A1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="T1" s="22"/>
       <c r="U1" s="22"/>
@@ -1033,60 +1034,58 @@
       <c r="IR1" s="22"/>
       <c r="IS1" s="22"/>
     </row>
-    <row r="2" spans="1:253" ht="48">
+    <row r="2" spans="1:253">
       <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="28">
+        <v>41</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="31">
         <v>3</v>
       </c>
       <c r="H2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>29</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>30</v>
       </c>
       <c r="K2" s="27">
         <v>206394063</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O2" s="27">
         <v>206394071</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="27">
         <v>20200616</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S2" s="27"/>
       <c r="T2" s="23"/>
@@ -1329,17 +1328,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
@@ -1592,19 +1591,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="28"/>
+        <v>37</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
@@ -1666,37 +1665,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1">
